--- a/data/Río Negro.xlsx
+++ b/data/Río Negro.xlsx
@@ -5239,7 +5239,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Suralis S.A.</t>
         </is>
       </c>
       <c r="F102" t="n">

--- a/data/Río Negro.xlsx
+++ b/data/Río Negro.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J106"/>
+  <dimension ref="A1:J107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Planta de Elaboración de Quesos y Planta de Tratamiento de Riles LACSUR</t>
+          <t>Tratamiento y riego de riles Planta Lacteos Rafulco</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>LACTEOS ARTESANOS DEL SUR SPA</t>
+          <t>Comercial Paillahue Ltda</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21/01/2020</t>
+          <t>17/11/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145483727&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160512987&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Planta de Elaboración de Quesos y Planta de Tratamiento de Riles LACSUR</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -482,20 +482,20 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>LACTEOS ARTESANOS DEL SUR SPA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>25000</v>
+        <v>3000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>21/01/2020</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145483727&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Planta de Elaboración de Quesos y Planta de Tratamiento de Riles LACSUR</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -530,30 +530,30 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>LACTEOS ARTESANOS DEL SUR SPA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3000</v>
+        <v>25000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>21/10/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144351085&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -583,7 +583,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Camilo De Jesús Román Searle</t>
+          <t>LACTEOS ARTESANOS DEL SUR SPA</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -591,17 +591,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>23/09/2019</t>
+          <t>21/10/2019</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144222399&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144351085&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,40 +616,40 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión S/E Pichirropulli - S/E Tineo</t>
+          <t>Planta de Elaboración de Quesos y Planta de Tratamiento de Riles LACSUR</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>TRANSELEC CONCESIONES S.A.</t>
+          <t>Camilo De Jesús Román Searle</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>82000</v>
+        <v>3000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>08/06/2017</t>
+          <t>23/09/2019</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132447295&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144222399&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,40 +664,40 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Abandono Pozo de Extracción de Áridos Seimura Carrasco</t>
+          <t>Sistema de Transmisión S/E Pichirropulli - S/E Tineo</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Seimura Carrasco Valdeavellano</t>
+          <t>TRANSELEC CONCESIONES S.A.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>20</v>
+        <v>82000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>07/06/2017</t>
+          <t>08/06/2017</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132449915&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132447295&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Abandono Pozo de Extracción de Áridos Seimura Carrasco</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -722,30 +722,30 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Seimura Carrasco Valdeavellano</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>10000</v>
+        <v>20</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>07/06/2017</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132449915&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -927,7 +927,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Piscicultura Los Nogales</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1058,30 +1058,30 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Andres Vargas teuber</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>10/09/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128526525&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>Piscicultura Los Nogales</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1106,20 +1106,20 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Andres Vargas teuber</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>10/09/2013</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128526525&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>250</v>
+        <v>2500</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ampliación de extracción de áridos en el río Rahue sector fundo el Almud - San Florentino</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,30 +1346,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ARIDOS DOWLING &amp; SCHILLING S.A</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>7000</v>
+        <v>250</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>18/03/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7972056&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Ampliación de extracción de áridos en el río Rahue sector fundo el Almud - San Florentino</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,30 +1394,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>ARIDOS DOWLING &amp; SCHILLING S.A</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>18/03/2013</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7972056&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,15 +1447,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,15 +1495,15 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,15 +1543,15 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,15 +1591,15 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,15 +1639,15 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>319</v>
+        <v>1000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>250</v>
+        <v>319</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>PROYECTO AMPLIACION EXTRACCION DE ARIDOS EN RIO RAHUE SECTOR FUNDO EL ALMUD</t>
+          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,12 +1730,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ARIDOS DOWLING &amp; SCHILLING S.A</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>08/10/2010</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4992265&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>PROYECTO AMPLIACION EXTRACCION DE ARIDOS EN RIO RAHUE SECTOR FUNDO EL ALMUD</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1778,30 +1778,30 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>ARIDOS DOWLING &amp; SCHILLING S.A</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>08/10/2010</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4992265&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1887,17 +1887,17 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,15 +1927,15 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,7 +1975,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -1988,12 +1988,12 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>PLAN DE CIERRE DE VERTEDERO MUNICIPAL COMUNA DE RÍO NEGRO (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2018,20 +2018,20 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Río Negro</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>577</v>
+        <v>0</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>21/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4342727&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>PLAN DE CIERRE DE VERTEDERO MUNICIPAL COMUNA DE RÍO NEGRO (e-seia)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,30 +2066,30 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Ilustre Municipalidad de Río Negro</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>577</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>21/01/2010</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4342727&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,15 +2119,15 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,25 +2167,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,15 +2215,15 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>27/07/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,15 +2263,15 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>27/07/2009</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,25 +2311,25 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>10/02/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,7 +2359,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -2367,17 +2367,17 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>10/02/2009</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2415,17 +2415,17 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,7 +2455,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -2463,17 +2463,17 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>07/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Extracción de Aridos Rio Rahue Fundo el Almud (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,30 +2498,30 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Dowling y Schilling Ltda</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>870</v>
+        <v>0</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>04/11/2008</t>
+          <t>07/11/2008</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3274231&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Extracción de Aridos Rio Rahue Fundo el Almud (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,20 +2546,20 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Dowling y Schilling Ltda</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>300</v>
+        <v>870</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>04/11/2008</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3274231&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2607,17 +2607,17 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,11 +2647,11 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2660,12 +2660,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,25 +2695,25 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>10/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,25 +2743,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>10/10/2008</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,15 +2791,15 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,25 +2839,25 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>250</v>
+        <v>20</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,25 +2887,25 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1650</v>
+        <v>250</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,15 +2935,15 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2991,17 +2991,17 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,15 +3031,15 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1650</v>
+        <v>20</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,15 +3079,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,25 +3127,25 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,15 +3175,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>429</v>
+        <v>0</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,25 +3223,25 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Proyecto Drenaje Superficial Fundo Bonanza 0 (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,30 +3266,30 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Walter Germán Schott Sigrist</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>149</v>
+        <v>234</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>24/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376265&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Drenaje Superficial Fundo Bonanza 0 (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,20 +3314,20 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Walter Germán Schott Sigrist</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>250</v>
+        <v>149</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>24/09/2007</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2376265&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,25 +3367,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,25 +3415,25 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3471,17 +3471,17 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,25 +3511,25 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario y Almacenamiento de Combustible (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,15 +3559,15 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Ferrocarril del Pacífico S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>26/02/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2016722&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>TRANSPORTE FERROVIARIO Y ALMACENAMIENTO DE COMBUSTIBLES (e-seia)</t>
+          <t>Transporte Ferroviario y Almacenamiento de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3615,17 +3615,17 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>14/02/2007</t>
+          <t>26/02/2007</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990390&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2016722&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>TRANSPORTE FERROVIARIO Y ALMACENAMIENTO DE COMBUSTIBLES (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,25 +3655,25 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Ferrocarril del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>14/02/2007</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990390&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3711,17 +3711,17 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,25 +3751,25 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,25 +3799,25 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,15 +3847,15 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,25 +3895,25 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,25 +3943,25 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,25 +3991,25 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,25 +4039,25 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -4095,17 +4095,17 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,25 +4135,25 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Piscicultura Casa de Lata 205101163 (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4178,30 +4178,30 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Agrícola y Piscicola Casa de Lata S.A.</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>10/04/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1392596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Piscicultura Casa de Lata 205101163 (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,30 +4226,30 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Agrícola y Piscicola Casa de Lata S.A.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>10/04/2006</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1392596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,25 +4279,25 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4335,17 +4335,17 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,25 +4375,25 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Drenaje Fundo Puchaura (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,30 +4418,30 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>MANUKA S.A. MANUKA S.A. MANUKA S.A.</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>209</v>
+        <v>0</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>12/12/2005</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1161516&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>Drenaje Fundo Puchaura (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,20 +4466,20 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>MANUKA S.A. MANUKA S.A. MANUKA S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>160</v>
+        <v>209</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>12/12/2005</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1161516&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,15 +4519,15 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,15 +4567,15 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,7 +4615,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F89" t="n">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,7 +4663,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -4671,7 +4671,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4719,17 +4719,17 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Drenaje Comunitario Fundo Los Laureles (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4754,30 +4754,30 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Ricardo Adolfo Krahmer Stolzenbach</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>13/12/2004</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=542006&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>Drenaje Comunitario Fundo Los Laureles (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4802,20 +4802,20 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>Ricardo Adolfo Krahmer Stolzenbach</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>13/12/2004</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=542006&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,15 +4855,15 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4898,12 +4898,12 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F95" t="n">
@@ -4911,7 +4911,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>01/07/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,20 +4946,20 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>21/06/2004</t>
+          <t>01/07/2004</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,7 +4999,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
@@ -5007,7 +5007,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>21/06/2004</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>DIA Piscicultura Hueyelhue (no. pert. 203101042) (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,20 +5042,20 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Fiordo Blanco</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>04/09/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=142216&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Cultivo de Mitílidos Ostreídos en Etapa de Engorda a Partir de Semilla Estero Condor Río Negro Décima Región N° PERT 99101011</t>
+          <t>DIA Piscicultura Hueyelhue (no. pert. 203101042) (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,15 +5095,15 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>José Ariel Millancheo Quintul</t>
+          <t>Fiordo Blanco</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>10</v>
+        <v>1500</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>04/10/2001</t>
+          <t>04/09/2003</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4720&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=142216&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Cultivo de Mitílidos Ostreídos en Etapa de Engorda a Partir de Semilla Estero Condor Río Negro Décima Región N° PERT 99101011</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,30 +5138,30 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>José Ariel Millancheo Quintul</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>04/10/2001</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4720&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Cementerio Municipal de Río Negro</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,30 +5186,30 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Río Negro</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>31/05/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transformación de las Lagunas de Estabilización de Río Negro en Lodos Activados</t>
+          <t>Cementerio Municipal de Río Negro</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,15 +5239,15 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Suralis S.A.</t>
+          <t>Ilustre Municipalidad de Río Negro</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>872</v>
+        <v>30</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>12/12/2000</t>
+          <t>31/05/2001</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3498&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Emprestito Chemsi II ( Segunda Presentación )</t>
+          <t>Transformación de las Lagunas de Estabilización de Río Negro en Lodos Activados</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,15 +5287,15 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Concesión de Los Lagos S. A.</t>
+          <t>Suralis S.A.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>70</v>
+        <v>872</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>16/10/2000</t>
+          <t>12/12/2000</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3498&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Ampliación del Empréstito Chemsi II</t>
+          <t>Emprestito Chemsi II ( Segunda Presentación )</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5339,21 +5339,21 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>190</v>
+        <v>70</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>07/07/2000</t>
+          <t>16/10/2000</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3301&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Ampliación del Empréstito Chemsi II</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,30 +5378,30 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>Concesión de Los Lagos S. A.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>07/07/2000</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,43 +5416,91 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>110</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>14/02/2000</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>Río Negro</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
           <t>Extracción de Áridos Fundo San Florentino Río Negro</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
         <is>
           <t>Décima</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>Constructora Socovesa Valdivia S.A.</t>
         </is>
       </c>
-      <c r="F106" t="n">
+      <c r="F107" t="n">
         <v>300</v>
       </c>
-      <c r="G106" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>18/03/1998</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
+      <c r="H107" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I106" t="inlineStr">
+      <c r="I107" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=795&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J106" t="inlineStr">
+      <c r="J107" t="inlineStr">
         <is>
           <t>Río Negro</t>
         </is>

--- a/data/Río Negro.xlsx
+++ b/data/Río Negro.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/11/2023</t>
+          <t>23/11/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
